--- a/예시파일.xlsx
+++ b/예시파일.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bigfo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bigfo\Desktop\베네시안\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8EFF22-AF9C-487C-AC4A-FE79811B7D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D244D484-7F1F-4E90-A472-DA0E21C11F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{8E9A9E5D-32D0-41F6-BDCE-F2C03B3D59A7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>홍길동</t>
   </si>
@@ -44,27 +44,18 @@
     <t>대표이사</t>
   </si>
   <si>
-    <t>최고경영자</t>
-  </si>
-  <si>
     <t>김민수</t>
   </si>
   <si>
     <t>팀장</t>
   </si>
   <si>
-    <t>개발팀장</t>
-  </si>
-  <si>
     <t>이영희</t>
   </si>
   <si>
     <t>사원</t>
   </si>
   <si>
-    <t>신입</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -75,40 +66,6 @@
   </si>
   <si>
     <t>직급</t>
-  </si>
-  <si>
-    <t>전화번호</t>
-  </si>
-  <si>
-    <t>비고</t>
-  </si>
-  <si>
-    <t>매출액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천억</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이백원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111-2222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2222-3333</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3333-4444</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -510,7 +467,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E5" sqref="E1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -520,28 +477,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -552,15 +503,9 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
@@ -570,20 +515,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
@@ -593,20 +532,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
@@ -616,17 +549,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
   </sheetData>
